--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cd19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cd19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,33 +561,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03843066666666667</v>
+        <v>0.284271</v>
       </c>
       <c r="N2">
-        <v>0.115292</v>
+        <v>0.852813</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="Q2">
-        <v>0.02417445218044445</v>
+        <v>0.5279370146310001</v>
       </c>
       <c r="R2">
-        <v>0.217570069624</v>
+        <v>4.751433131679001</v>
       </c>
       <c r="S2">
-        <v>0.002417816460522425</v>
+        <v>0.006414931200260618</v>
       </c>
       <c r="T2">
-        <v>0.002417816460522425</v>
+        <v>0.006414931200260618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03843066666666667</v>
+        <v>0.01144633333333333</v>
       </c>
       <c r="N3">
-        <v>0.115292</v>
+        <v>0.034339</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="Q3">
-        <v>3.185087703066222</v>
+        <v>0.02125768385966667</v>
       </c>
       <c r="R3">
-        <v>28.665789327596</v>
+        <v>0.191319154737</v>
       </c>
       <c r="S3">
-        <v>0.3185576830944962</v>
+        <v>0.0002583008496420075</v>
       </c>
       <c r="T3">
-        <v>0.3185576830944962</v>
+        <v>0.0002583008496420075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H4">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I4">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J4">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,33 +685,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03843066666666667</v>
+        <v>0.284271</v>
       </c>
       <c r="N4">
-        <v>0.115292</v>
+        <v>0.852813</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="Q4">
-        <v>1.576446289299556</v>
+        <v>23.560040586641</v>
       </c>
       <c r="R4">
-        <v>14.188016603696</v>
+        <v>212.040365279769</v>
       </c>
       <c r="S4">
-        <v>0.1576688381166819</v>
+        <v>0.286276649013303</v>
       </c>
       <c r="T4">
-        <v>0.1576688381166819</v>
+        <v>0.286276649013303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3953956666666666</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H5">
-        <v>1.186187</v>
+        <v>248.636413</v>
       </c>
       <c r="I5">
-        <v>0.001519765258344566</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J5">
-        <v>0.001519765258344566</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03843066666666667</v>
+        <v>0.01144633333333333</v>
       </c>
       <c r="N5">
-        <v>0.115292</v>
+        <v>0.034339</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="Q5">
-        <v>0.01519531906711111</v>
+        <v>0.9486584206674445</v>
       </c>
       <c r="R5">
-        <v>0.136757871604</v>
+        <v>8.537925786007001</v>
       </c>
       <c r="S5">
-        <v>0.001519765258344566</v>
+        <v>0.01152709193043236</v>
       </c>
       <c r="T5">
-        <v>0.001519765258344566</v>
+        <v>0.01152709193043236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>105.0835686666667</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H6">
-        <v>315.250706</v>
+        <v>179.272636</v>
       </c>
       <c r="I6">
-        <v>0.4039051773855191</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J6">
-        <v>0.403905177385519</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03843066666666667</v>
+        <v>0.284271</v>
       </c>
       <c r="N6">
-        <v>0.115292</v>
+        <v>0.852813</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9612929915054016</v>
       </c>
       <c r="Q6">
-        <v>4.038431599572444</v>
+        <v>16.987337169452</v>
       </c>
       <c r="R6">
-        <v>36.345884396152</v>
+        <v>152.886034525068</v>
       </c>
       <c r="S6">
-        <v>0.4039051773855191</v>
+        <v>0.2064121215176219</v>
       </c>
       <c r="T6">
-        <v>0.403905177385519</v>
+        <v>0.2064121215176219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.16156866666667</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H7">
-        <v>90.484706</v>
+        <v>179.272636</v>
       </c>
       <c r="I7">
-        <v>0.115930719684436</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J7">
-        <v>0.115930719684436</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03843066666666667</v>
+        <v>0.01144633333333333</v>
       </c>
       <c r="N7">
-        <v>0.115292</v>
+        <v>0.034339</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.03870700849459845</v>
       </c>
       <c r="Q7">
-        <v>1.159129191572444</v>
+        <v>0.6840047830671112</v>
       </c>
       <c r="R7">
-        <v>10.432162724152</v>
+        <v>6.156043047604</v>
       </c>
       <c r="S7">
-        <v>0.115930719684436</v>
+        <v>0.008311301353044124</v>
       </c>
       <c r="T7">
-        <v>0.115930719684436</v>
+        <v>0.008311301353044125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3694876666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.108463</v>
+      </c>
+      <c r="I8">
+        <v>0.00132765922784494</v>
+      </c>
+      <c r="J8">
+        <v>0.00132765922784494</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.284271</v>
+      </c>
+      <c r="N8">
+        <v>0.852813</v>
+      </c>
+      <c r="O8">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="P8">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="Q8">
+        <v>0.105034628491</v>
+      </c>
+      <c r="R8">
+        <v>0.9453116564190001</v>
+      </c>
+      <c r="S8">
+        <v>0.001276269510834814</v>
+      </c>
+      <c r="T8">
+        <v>0.001276269510834814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3694876666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.108463</v>
+      </c>
+      <c r="I9">
+        <v>0.00132765922784494</v>
+      </c>
+      <c r="J9">
+        <v>0.00132765922784494</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01144633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.034339</v>
+      </c>
+      <c r="O9">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="P9">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="Q9">
+        <v>0.004229278995222223</v>
+      </c>
+      <c r="R9">
+        <v>0.038063510957</v>
+      </c>
+      <c r="S9">
+        <v>5.138971701012612E-05</v>
+      </c>
+      <c r="T9">
+        <v>5.138971701012612E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H10">
+        <v>383.5999</v>
+      </c>
+      <c r="I10">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J10">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.284271</v>
+      </c>
+      <c r="N10">
+        <v>0.852813</v>
+      </c>
+      <c r="O10">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="P10">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="Q10">
+        <v>36.3487757243</v>
+      </c>
+      <c r="R10">
+        <v>327.1389815187</v>
+      </c>
+      <c r="S10">
+        <v>0.4416718074751108</v>
+      </c>
+      <c r="T10">
+        <v>0.4416718074751108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H11">
+        <v>383.5999</v>
+      </c>
+      <c r="I11">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J11">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01144633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.034339</v>
+      </c>
+      <c r="O11">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="P11">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="Q11">
+        <v>1.463604107344445</v>
+      </c>
+      <c r="R11">
+        <v>13.1724369661</v>
+      </c>
+      <c r="S11">
+        <v>0.01778416627899414</v>
+      </c>
+      <c r="T11">
+        <v>0.01778416627899414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H12">
+        <v>16.711339</v>
+      </c>
+      <c r="I12">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J12">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.284271</v>
+      </c>
+      <c r="N12">
+        <v>0.852813</v>
+      </c>
+      <c r="O12">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="P12">
+        <v>0.9612929915054016</v>
+      </c>
+      <c r="Q12">
+        <v>1.583516349623</v>
+      </c>
+      <c r="R12">
+        <v>14.251647146607</v>
+      </c>
+      <c r="S12">
+        <v>0.01924121278827057</v>
+      </c>
+      <c r="T12">
+        <v>0.01924121278827057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H13">
+        <v>16.711339</v>
+      </c>
+      <c r="I13">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J13">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01144633333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.034339</v>
+      </c>
+      <c r="O13">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="P13">
+        <v>0.03870700849459845</v>
+      </c>
+      <c r="Q13">
+        <v>0.06376118554677779</v>
+      </c>
+      <c r="R13">
+        <v>0.5738506699210001</v>
+      </c>
+      <c r="S13">
+        <v>0.0007747583654756939</v>
+      </c>
+      <c r="T13">
+        <v>0.000774758365475694</v>
       </c>
     </row>
   </sheetData>
